--- a/biology/Botanique/Dasiphora/Dasiphora.xlsx
+++ b/biology/Botanique/Dasiphora/Dasiphora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasiphora est un genre de plantes à fleurs de la famille des rosacées. Ce sont des arbrisseaux originaires d'Asie, avec une espèce D. fruticosa (la potentille arbustive), qui s'étend sur l'ensemble de l'hémisphère nord tempéré frais[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasiphora est un genre de plantes à fleurs de la famille des rosacées. Ce sont des arbrisseaux originaires d'Asie, avec une espèce D. fruticosa (la potentille arbustive), qui s'étend sur l'ensemble de l'hémisphère nord tempéré frais,.
 Les feuilles sont divisées en cinq (parfois trois ou sept) folioles. 
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasiphora davurica (syn. D. glabra, D. mandschurica, Potentilla davurica, P. glabra )
 Dasiphora fruticosa (syn. Potentilla fruticosa )
 Dasiphora parvifolia (syn. Potentilla parvifolia )
-(KEW plants of the world reconnaît 10 espèces en août 2022)[3].
+(KEW plants of the world reconnaît 10 espèces en août 2022).
 </t>
         </is>
       </c>
